--- a/data-folder/Données_groupe_11.xlsx
+++ b/data-folder/Données_groupe_11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données11" sheetId="2" r:id="rId1"/>
@@ -498,46 +498,46 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57.230000000000004</v>
+        <v>43.36</v>
       </c>
       <c r="B16">
         <v>84</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>32.08</v>
+        <v>8.73</v>
       </c>
       <c r="B17">
         <v>120</v>
       </c>
       <c r="C17">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>96.78</v>
+        <v>29.049999999999997</v>
       </c>
       <c r="B18">
         <v>112</v>
       </c>
       <c r="C18">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19.68</v>
+        <v>13.73</v>
       </c>
       <c r="B19">
         <v>92</v>
       </c>
       <c r="C19">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,13 +586,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26.029999999999998</v>
+        <v>23.46</v>
       </c>
       <c r="B24">
         <v>78</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>48.16</v>
+        <v>33.900000000000006</v>
       </c>
       <c r="B28">
         <v>90</v>
       </c>
       <c r="C28">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,13 +663,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>96.66</v>
+        <v>70.52000000000001</v>
       </c>
       <c r="B31">
         <v>85</v>
       </c>
       <c r="C31">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,13 +707,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>28.21</v>
+        <v>20.73</v>
       </c>
       <c r="B35">
         <v>92</v>
       </c>
       <c r="C35">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,24 +729,24 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>29.7</v>
+        <v>24.55</v>
       </c>
       <c r="B37">
         <v>84</v>
       </c>
       <c r="C37">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>84.94</v>
+        <v>83.04</v>
       </c>
       <c r="B38">
         <v>72</v>
       </c>
       <c r="C38">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,24 +762,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>17.740000000000002</v>
+        <v>13.01</v>
       </c>
       <c r="B40">
         <v>87</v>
       </c>
       <c r="C40">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>29.74</v>
+        <v>17.14</v>
       </c>
       <c r="B41">
         <v>99</v>
       </c>
       <c r="C41">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,24 +806,24 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20.440000000000001</v>
+        <v>13.270000000000001</v>
       </c>
       <c r="B44">
         <v>94</v>
       </c>
       <c r="C44">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>17.8</v>
+        <v>9.7199999999999989</v>
       </c>
       <c r="B45">
         <v>106</v>
       </c>
       <c r="C45">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16.809999999999999</v>
+        <v>5.33</v>
       </c>
       <c r="B47">
         <v>118</v>
       </c>
       <c r="C47">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,24 +894,24 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>14.21</v>
+        <v>13.059999999999999</v>
       </c>
       <c r="B52">
         <v>76</v>
       </c>
       <c r="C52">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>27.3</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="B53">
         <v>90</v>
       </c>
       <c r="C53">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>64.44</v>
+        <v>21.490000000000002</v>
       </c>
       <c r="B55">
         <v>114</v>
       </c>
       <c r="C55">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,13 +949,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>90.05</v>
+        <v>58.109999999999992</v>
       </c>
       <c r="B57">
         <v>90</v>
       </c>
       <c r="C57">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,13 +1015,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>19.18</v>
+        <v>17.990000000000002</v>
       </c>
       <c r="B63">
         <v>77</v>
       </c>
       <c r="C63">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
